--- a/structure.xlsx
+++ b/structure.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B77FF32-4562-4344-84DD-B8246B802921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -75,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,152 +450,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B6:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="100.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="103.28515625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="81.85546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
+    <row r="6" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="4" t="s">
+    <row r="7" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
+    <row r="8" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
+    <row r="9" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
+    <row r="10" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+    <row r="11" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
+    <row r="12" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
+    <row r="13" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
+    <row r="14" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+    <row r="15" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
+    <row r="16" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+    <row r="17" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
